--- a/data/arange/04_pickup_params/220606 調査報告書+IDs.xlsx
+++ b/data/arange/04_pickup_params/220606 調査報告書+IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke_shibata/04_laboratory/04_part_time/01_code/data/arange/04_pickup_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774FC91F-F2DC-3940-B92E-BEA0752836F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A773A70-1668-ED49-A10E-18101414567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="500" windowWidth="24300" windowHeight="18980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19080" yWindow="0" windowWidth="19080" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_各シート詳細" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="297">
   <si>
     <t>シート名</t>
   </si>
@@ -920,8 +920,82 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>LF/HF_hVRf1</t>
+  </si>
+  <si>
+    <t>LF/HF_hVRf2</t>
+  </si>
+  <si>
+    <t>CVRR_h2D</t>
+  </si>
+  <si>
+    <t>DC_hBreak</t>
+  </si>
+  <si>
+    <t>LF/(LF+HF)_h2D</t>
+  </si>
+  <si>
+    <t>LF_hVRf1</t>
+  </si>
+  <si>
+    <t>SDNN_hVRf1</t>
+  </si>
+  <si>
+    <t>kU/l_2D</t>
+  </si>
+  <si>
+    <t>DC_hVRf2</t>
+  </si>
+  <si>
+    <t>DC_h2D</t>
+  </si>
+  <si>
+    <t>LF_h2D</t>
+  </si>
+  <si>
+    <t>LF_hVRf0</t>
+  </si>
+  <si>
+    <t>LF/HF_hVRf0</t>
+  </si>
+  <si>
+    <t>DC_hVRf0</t>
+  </si>
+  <si>
+    <t>SDNN_h2D</t>
+  </si>
+  <si>
+    <t>LF/HF_hBreak</t>
+  </si>
+  <si>
+    <t>DC_hVR</t>
+  </si>
+  <si>
+    <t>LF_hBreak</t>
+  </si>
+  <si>
+    <t>CVRR_hVRf1</t>
+  </si>
+  <si>
+    <t>LF/(LF+HF)_hVR</t>
+  </si>
+  <si>
+    <t>RRI_hVRf2</t>
+  </si>
+  <si>
+    <t>RMSSD_hVRf2</t>
+  </si>
+  <si>
     <t>kU/l_VR</t>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AC_hVRf2</t>
+  </si>
+  <si>
+    <t>HF_hVRf2</t>
+  </si>
+  <si>
+    <t>pNN50_hVRf2</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1369,11 +1443,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1493,6 +1591,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -24901,7 +25010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914C3500-6F0C-F540-880C-B4A9F24DDFB1}">
   <dimension ref="A1:AP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="85" workbookViewId="0">
       <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
@@ -28910,8 +29019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E579019D-7751-8E46-802F-9155BF1A0E92}">
   <dimension ref="A1:AQ64"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28923,77 +29032,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="65" t="s">
         <v>234</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="S1" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="T1" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="W1" s="51" t="s">
-        <v>252</v>
+      <c r="D1" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>290</v>
       </c>
       <c r="X1" s="61" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="Y1" s="61" t="s">
         <v>269</v>
@@ -29002,10 +29111,10 @@
         <v>268</v>
       </c>
       <c r="AA1" s="61" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AB1" s="61" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="AC1" s="61" t="s">
         <v>266</v>
@@ -29017,13 +29126,13 @@
         <v>264</v>
       </c>
       <c r="AF1" s="61" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="AG1" s="61" t="s">
         <v>263</v>
       </c>
       <c r="AH1" s="61" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="AI1" s="61" t="s">
         <v>261</v>
@@ -29041,10 +29150,10 @@
         <v>257</v>
       </c>
       <c r="AN1" s="61" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="AO1" s="61" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="AP1" s="61" t="s">
         <v>254</v>
@@ -29054,10 +29163,10 @@
       </c>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="55">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -29148,7 +29257,7 @@
         <v>2.2667454800683808</v>
       </c>
       <c r="AF2" s="57">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="AG2" s="58">
         <v>50</v>
@@ -29185,10 +29294,10 @@
       </c>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="55">
+      <c r="A3" s="57">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="32" t="s">
@@ -29279,7 +29388,7 @@
         <v>2.391668115621866</v>
       </c>
       <c r="AF3" s="57">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AG3" s="58">
         <v>46</v>
@@ -29316,10 +29425,10 @@
       </c>
     </row>
     <row r="4" spans="1:43">
-      <c r="A4" s="55">
+      <c r="A4" s="57">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -29394,7 +29503,7 @@
         <v>0.61581112390854564</v>
       </c>
       <c r="AF4" s="57">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AG4" s="58">
         <v>37</v>
@@ -29427,10 +29536,10 @@
       </c>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="55">
+      <c r="A5" s="57">
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -29521,7 +29630,7 @@
         <v>2.056056798410915</v>
       </c>
       <c r="AF5" s="57">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AG5" s="58">
         <v>31</v>
@@ -29558,10 +29667,10 @@
       </c>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="55">
+      <c r="A6" s="57">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -29651,8 +29760,8 @@
       <c r="AE6" s="57">
         <v>2.1582405419345889</v>
       </c>
-      <c r="AF6" s="57">
-        <v>49</v>
+      <c r="AF6" s="68">
+        <v>3</v>
       </c>
       <c r="AG6" s="58">
         <v>44</v>
@@ -29684,15 +29793,15 @@
       <c r="AP6" s="57">
         <v>-2.393490076776557</v>
       </c>
-      <c r="AQ6" s="57">
+      <c r="AQ6" s="69">
         <v>-2.5032624580941398</v>
       </c>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="55">
+      <c r="A7" s="57">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="32" t="s">
@@ -29820,10 +29929,10 @@
       </c>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="55">
+      <c r="A8" s="57">
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="32" t="s">
@@ -29951,10 +30060,10 @@
       </c>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" s="55">
+      <c r="A9" s="57">
         <v>8</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="32" t="s">
@@ -30082,10 +30191,10 @@
       </c>
     </row>
     <row r="10" spans="1:43">
-      <c r="A10" s="55">
+      <c r="A10" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="32" t="s">
@@ -30213,10 +30322,10 @@
       </c>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="55">
+      <c r="A11" s="57">
         <v>10</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="32" t="s">
@@ -30344,10 +30453,10 @@
       </c>
     </row>
     <row r="12" spans="1:43">
-      <c r="A12" s="55">
+      <c r="A12" s="57">
         <v>11</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="32" t="s">
@@ -30475,10 +30584,10 @@
       </c>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="55">
+      <c r="A13" s="57">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="32" t="s">
@@ -30606,10 +30715,10 @@
       </c>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="55">
+      <c r="A14" s="57">
         <v>13</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="32" t="s">
@@ -30737,10 +30846,10 @@
       </c>
     </row>
     <row r="15" spans="1:43">
-      <c r="A15" s="55">
+      <c r="A15" s="57">
         <v>14</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="32" t="s">
@@ -30868,10 +30977,10 @@
       </c>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" s="55">
+      <c r="A16" s="57">
         <v>15</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="32" t="s">
@@ -30999,10 +31108,10 @@
       </c>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="55">
+      <c r="A17" s="57">
         <v>16</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="32" t="s">
@@ -31130,10 +31239,10 @@
       </c>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="55">
+      <c r="A18" s="57">
         <v>17</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -31261,10 +31370,10 @@
       </c>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="55">
+      <c r="A19" s="57">
         <v>18</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="32" t="s">
@@ -31392,10 +31501,10 @@
       </c>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="55">
+      <c r="A20" s="57">
         <v>19</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="32" t="s">
@@ -31523,10 +31632,10 @@
       </c>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="55">
+      <c r="A21" s="57">
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="32" t="s">
@@ -31654,10 +31763,10 @@
       </c>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="55">
+      <c r="A22" s="57">
         <v>21</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="32" t="s">
@@ -31785,10 +31894,10 @@
       </c>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="55">
+      <c r="A23" s="57">
         <v>22</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="32" t="s">
@@ -31916,10 +32025,10 @@
       </c>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="55">
+      <c r="A24" s="57">
         <v>23</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="32" t="s">
@@ -32027,10 +32136,10 @@
       </c>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="55">
+      <c r="A25" s="57">
         <v>24</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="32" t="s">
@@ -32158,10 +32267,10 @@
       </c>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="55">
+      <c r="A26" s="57">
         <v>25</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="32" t="s">
@@ -32289,10 +32398,10 @@
       </c>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="55">
+      <c r="A27" s="57">
         <v>26</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="32" t="s">
@@ -32420,10 +32529,10 @@
       </c>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" s="55">
+      <c r="A28" s="57">
         <v>27</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="32" t="s">
@@ -32551,10 +32660,10 @@
       </c>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="55">
+      <c r="A29" s="57">
         <v>28</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="32" t="s">
@@ -32616,10 +32725,10 @@
       <c r="AQ29" s="57"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="55">
+      <c r="A30" s="57">
         <v>29</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="32" t="s">
@@ -32747,10 +32856,10 @@
       </c>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="55">
+      <c r="A31" s="57">
         <v>30</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="32" t="s">
@@ -32878,10 +32987,10 @@
       </c>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="55">
+      <c r="A32" s="57">
         <v>31</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="63" t="s">
@@ -33008,96 +33117,133 @@
         <v>-11.13161834787895</v>
       </c>
     </row>
-    <row r="33" spans="3:43">
+    <row r="33" spans="1:43">
       <c r="C33" s="64"/>
     </row>
-    <row r="34" spans="3:43">
+    <row r="34" spans="1:43">
       <c r="C34" s="62"/>
     </row>
-    <row r="35" spans="3:43">
+    <row r="35" spans="1:43">
       <c r="C35" s="62"/>
     </row>
-    <row r="36" spans="3:43">
+    <row r="36" spans="1:43">
       <c r="C36" s="62"/>
     </row>
-    <row r="37" spans="3:43" ht="18">
+    <row r="37" spans="1:43">
+      <c r="A37" s="70"/>
       <c r="C37" s="62"/>
-      <c r="W37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="AI37" s="59"/>
-      <c r="AQ37" s="59"/>
-    </row>
-    <row r="38" spans="3:43" ht="18">
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="70"/>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="70"/>
+      <c r="AD37" s="70"/>
+      <c r="AE37" s="70"/>
+      <c r="AF37" s="70"/>
+      <c r="AG37" s="71"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="70"/>
+      <c r="AJ37" s="71"/>
+      <c r="AK37" s="71"/>
+      <c r="AL37" s="71"/>
+      <c r="AM37" s="70"/>
+      <c r="AN37" s="70"/>
+      <c r="AO37" s="70"/>
+      <c r="AP37" s="70"/>
+      <c r="AQ37" s="70"/>
+    </row>
+    <row r="38" spans="1:43" ht="18">
       <c r="C38" s="62"/>
       <c r="W38" s="59"/>
       <c r="Y38" s="59"/>
       <c r="AI38" s="59"/>
       <c r="AQ38" s="59"/>
     </row>
-    <row r="39" spans="3:43" ht="18">
+    <row r="39" spans="1:43" ht="18">
       <c r="C39" s="62"/>
       <c r="W39" s="59"/>
       <c r="Y39" s="59"/>
       <c r="AI39" s="59"/>
       <c r="AQ39" s="59"/>
     </row>
-    <row r="40" spans="3:43" ht="18">
+    <row r="40" spans="1:43" ht="18">
       <c r="C40" s="62"/>
       <c r="W40" s="59"/>
       <c r="Y40" s="59"/>
       <c r="AI40" s="59"/>
       <c r="AQ40" s="59"/>
     </row>
-    <row r="41" spans="3:43" ht="18">
+    <row r="41" spans="1:43" ht="18">
       <c r="C41" s="62"/>
       <c r="W41" s="59"/>
       <c r="Y41" s="59"/>
       <c r="AI41" s="59"/>
       <c r="AQ41" s="59"/>
     </row>
-    <row r="42" spans="3:43" ht="18">
+    <row r="42" spans="1:43" ht="18">
       <c r="C42" s="62"/>
       <c r="W42" s="59"/>
       <c r="Y42" s="59"/>
       <c r="AI42" s="59"/>
       <c r="AQ42" s="59"/>
     </row>
-    <row r="43" spans="3:43" ht="18">
+    <row r="43" spans="1:43" ht="18">
       <c r="C43" s="62"/>
       <c r="W43" s="59"/>
       <c r="Y43" s="59"/>
       <c r="AI43" s="59"/>
       <c r="AQ43" s="59"/>
     </row>
-    <row r="44" spans="3:43" ht="18">
+    <row r="44" spans="1:43" ht="18">
       <c r="C44" s="62"/>
       <c r="W44" s="59"/>
       <c r="Y44" s="59"/>
       <c r="AI44" s="59"/>
       <c r="AQ44" s="59"/>
     </row>
-    <row r="45" spans="3:43" ht="18">
+    <row r="45" spans="1:43" ht="18">
       <c r="C45" s="62"/>
       <c r="W45" s="59"/>
       <c r="Y45" s="59"/>
       <c r="AI45" s="59"/>
       <c r="AQ45" s="59"/>
     </row>
-    <row r="46" spans="3:43" ht="18">
+    <row r="46" spans="1:43" ht="18">
       <c r="C46" s="62"/>
       <c r="W46" s="59"/>
       <c r="Y46" s="59"/>
       <c r="AI46" s="59"/>
       <c r="AQ46" s="59"/>
     </row>
-    <row r="47" spans="3:43" ht="18">
+    <row r="47" spans="1:43" ht="18">
       <c r="C47" s="62"/>
       <c r="W47" s="59"/>
       <c r="Y47" s="59"/>
       <c r="AI47" s="59"/>
       <c r="AQ47" s="59"/>
     </row>
-    <row r="48" spans="3:43" ht="18">
+    <row r="48" spans="1:43" ht="18">
       <c r="C48" s="62"/>
       <c r="W48" s="59"/>
       <c r="Y48" s="59"/>
